--- a/document/Design/Configuration.xlsx
+++ b/document/Design/Configuration.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tello Tag Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="Version Control Configuration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tello Tag Configuration'!$A$2:$G$24</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -91,9 +94,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -212,6 +212,33 @@
   </si>
   <si>
     <t xml:space="preserve">Deploy Project </t>
+  </si>
+  <si>
+    <t>ACLOG0102</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>System Analysis</t>
+  </si>
+  <si>
+    <t>System Analysis DB Design</t>
+  </si>
+  <si>
+    <t>MOVIE0201</t>
+  </si>
+  <si>
+    <t>Movie - Detail</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -235,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -406,15 +427,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,16 +438,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,9 +746,10 @@
     <col min="2" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -740,7 +759,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -759,8 +778,11 @@
       <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -774,13 +796,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -788,19 +811,20 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -808,175 +832,184 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -984,17 +1017,18 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1002,17 +1036,18 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1020,37 +1055,37 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1058,97 +1093,170 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G24" xr:uid="{FA0238DB-8F8F-4C9A-8203-5D4B17E6088E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1158,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68935A50-2479-48AD-B4FF-4F0F09EC5E00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1169,39 +1277,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/document/Design/Configuration.xlsx
+++ b/document/Design/Configuration.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tello Tag Configuration" sheetId="1" r:id="rId1"/>
-    <sheet name="Version Control Configuration" sheetId="2" r:id="rId2"/>
+    <sheet name="Resource" sheetId="3" r:id="rId2"/>
+    <sheet name="Version Control Configuration" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tello Tag Configuration'!$A$2:$G$24</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -239,6 +240,48 @@
   </si>
   <si>
     <t>add</t>
+  </si>
+  <si>
+    <t>Bootstrap 3</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Jython</t>
+  </si>
+  <si>
+    <t>Springframework</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Eclipse EE Luna</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Lib +++++++</t>
+  </si>
+  <si>
+    <t>AngularJS 1.5</t>
+  </si>
+  <si>
+    <t>Workbench 6.3 CE</t>
+  </si>
+  <si>
+    <t>HeidiSQL 7</t>
+  </si>
+  <si>
+    <t>Tomcat 7</t>
   </si>
 </sst>
 </file>
@@ -262,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -442,18 +491,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1158,22 +1208,22 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1263,6 +1313,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFC4931-1D01-4AD9-8F7C-8B9EB784D162}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68935A50-2479-48AD-B4FF-4F0F09EC5E00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1277,11 +1415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
@@ -1302,10 +1440,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="17" t="s">
         <v>62</v>
       </c>
